--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57702.29194760189</v>
+        <v>11398756.83647485</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57702.29194760189</v>
+        <v>11398756.83647485</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2984.094434665619</v>
+        <v>447305.2470664746</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2984.094434665619</v>
+        <v>447305.2470664746</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266830985.150944</v>
+        <v>52821124.24929097</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11492.86608038848</v>
+        <v>1304369.279428677</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21293.15183874276</v>
+        <v>2343355.337703067</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31094.22617497468</v>
+        <v>3382341.395977459</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40939.99049159214</v>
+        <v>4412090.61301263</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50786.86983576771</v>
+        <v>5452957.101620461</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60615.90525426104</v>
+        <v>6491943.159894851</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70444.94067275438</v>
+        <v>7530929.218169237</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80273.74948305321</v>
+        <v>8569915.276443625</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90119.68031093883</v>
+        <v>9599655.84593006</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99968.49256282714</v>
+        <v>10639402.47679577</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109799.78039656</v>
+        <v>11678616.26529668</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119628.8158150533</v>
+        <v>12717602.32357108</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129457.8512335466</v>
+        <v>13756588.38184548</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139459.8103475532</v>
+        <v>14725806.63036687</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149745.1761174847</v>
+        <v>15683100.10847477</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>380</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27156,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
